--- a/results/File_Transfer_Results.xlsx
+++ b/results/File_Transfer_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauge\Documents\Hybrid-Cryptography\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5D83ED-EEF7-4770-9643-4AC9A2DA85A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C826D-76FC-4DF8-8745-6F7312EF2FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F0E6E3B3-99E1-4FA1-860B-420909FD6595}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F0E6E3B3-99E1-4FA1-860B-420909FD6595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Classic authentication and classic key exchange</t>
+    <t>Classic</t>
   </si>
   <si>
-    <t>Classic authentication and hybrid key exchange</t>
-  </si>
-  <si>
-    <t>Hybrid authentication and hybrid key exchange</t>
-  </si>
-  <si>
-    <t>tot: 420272</t>
-  </si>
-  <si>
-    <t>tot: 412572</t>
-  </si>
-  <si>
-    <t>tot: 411850</t>
+    <t>Hybrid</t>
   </si>
 </sst>
 </file>
@@ -109,7 +97,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,164 +413,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4B3E6B-87DE-463B-8FD1-0786A343E7D4}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="5" max="5" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="C2">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="E2">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="E3">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="E4">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="C6">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.41099999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="C7">
-        <v>0.53</v>
-      </c>
-      <c r="E7">
-        <v>0.53100000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="C8">
-        <v>0.436</v>
-      </c>
-      <c r="E8">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0.47</v>
-      </c>
-      <c r="E9">
-        <v>0.49099999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="C11">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f>AVERAGE(A2:A11)</f>
-        <v>0.52649999999999986</v>
-      </c>
-      <c r="C13">
-        <f>AVERAGE(C2:C11)</f>
-        <v>0.51669999999999994</v>
-      </c>
-      <c r="E13">
-        <f>AVERAGE(E2:E11)</f>
-        <v>0.47850000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/File_Transfer_Results.xlsx
+++ b/results/File_Transfer_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C826D-76FC-4DF8-8745-6F7312EF2FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C363E-62E4-446A-B2E7-D44B7CC87709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F0E6E3B3-99E1-4FA1-860B-420909FD6595}"/>
   </bookViews>
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,8 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4B3E6B-87DE-463B-8FD1-0786A343E7D4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,6 +440,98 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1376</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>5254</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1568</v>
+      </c>
+      <c r="C4">
+        <f>0.946</f>
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3277</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1091</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2503</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1145</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>3265</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2067</v>
+      </c>
+      <c r="C10" s="2">
+        <f>0.717</f>
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1014</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f>MEDIAN(A2:A11)</f>
+        <v>1817.5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>MEDIAN(C2:C11)</f>
+        <v>1299.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/File_Transfer_Results.xlsx
+++ b/results/File_Transfer_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C363E-62E4-446A-B2E7-D44B7CC87709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0648D7AA-3E66-4201-9A13-B96EB9EE7892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F0E6E3B3-99E1-4FA1-860B-420909FD6595}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4B3E6B-87DE-463B-8FD1-0786A343E7D4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,13 +522,93 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>1423</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2407</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <f>MEDIAN(A2:A11)</f>
-        <v>1817.5</v>
-      </c>
-      <c r="C13" s="1">
-        <f>MEDIAN(C2:C11)</f>
+      <c r="A13" s="2">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1062</v>
+      </c>
+      <c r="C14">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>1323</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.747</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f>MEDIAN(A2:A21)</f>
+        <v>1118</v>
+      </c>
+      <c r="C24" s="1">
+        <f>MEDIAN(C2:C21)</f>
         <v>1299.5</v>
       </c>
     </row>
